--- a/DSP_H2_2025/Tháng 10/NewEleven_20251013_20251013_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 10/NewEleven_20251013_20251013_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -149,45 +149,45 @@
     <t>B0CM5RJ8VD-Dads - tumblers</t>
   </si>
   <si>
+    <t>B097B9SY89-Dads - tumblers</t>
+  </si>
+  <si>
+    <t>B0DM63J16N-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B08ZKZ1FJK-Dads - tumblers</t>
   </si>
   <si>
-    <t>B0DM63J16N-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0DH87FYNN-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B097B9SY89-Dads - tumblers</t>
+    <t>B0F2T4JDF7-Moms-Cards</t>
   </si>
   <si>
     <t>B0D7HMXCSP-Retirement</t>
   </si>
   <si>
-    <t>B0F2T4JDF7-Moms-Cards</t>
-  </si>
-  <si>
     <t>B0F18CMJ3L-Retirement-WhiskeyGlass</t>
   </si>
   <si>
+    <t>B08ZRWW1W4-Retirement - tumblers</t>
+  </si>
+  <si>
+    <t>B09XXP5V2W-Retirement - tumblers</t>
+  </si>
+  <si>
+    <t>B0F18PVLJ1-Retirement-Tumbler</t>
+  </si>
+  <si>
     <t>B0DH88L44J-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0F18PVLJ1-Retirement-Tumbler</t>
-  </si>
-  <si>
-    <t>B08ZRWW1W4-Retirement - tumblers</t>
-  </si>
-  <si>
-    <t>B09XXP5V2W-Retirement - tumblers</t>
+    <t>B0CG8NHNWF-Moms - Tumblers</t>
   </si>
   <si>
     <t>B0D1K731RT-Moms-Cf glass</t>
   </si>
   <si>
-    <t>B0CG8NHNWF-Moms - Tumblers</t>
-  </si>
-  <si>
     <t>B097B9H21P-Moms - Tumblers</t>
   </si>
   <si>
@@ -203,19 +203,43 @@
     <t>B0DXVPDSJK-Moms-REC</t>
   </si>
   <si>
+    <t>B0BRB6NJCT-Retirement -Cf glass</t>
+  </si>
+  <si>
+    <t>B08CDFWN1Q-Dads,Men-Apron</t>
+  </si>
+  <si>
+    <t>B0F7LJYVN5-Dads-Card</t>
+  </si>
+  <si>
+    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
+  </si>
+  <si>
+    <t>B0DVSKBSWN-Dads-BIble Jar</t>
+  </si>
+  <si>
+    <t>B0CY4G9VSR-Dads-Hats</t>
+  </si>
+  <si>
+    <t>B0CYPT8HM7-Birthday-Cf glass</t>
+  </si>
+  <si>
+    <t>B0DM61B4F2-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0CYS94K31-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DHC932W2-Birthday-Hat</t>
+  </si>
+  <si>
+    <t>B0DCJM56W3-Moms-Cf glass</t>
+  </si>
+  <si>
+    <t>B0DPM5JXP70-HouseWarming-Ornaments</t>
+  </si>
+  <si>
     <t>B09ZYCD6GX-Retirement</t>
-  </si>
-  <si>
-    <t>B0CY4G9VSR-Dads-Hats</t>
-  </si>
-  <si>
-    <t>B0DCJM56W3-Moms-Cf glass</t>
-  </si>
-  <si>
-    <t>B08CDFWN1Q-Dads,Men-Apron</t>
-  </si>
-  <si>
-    <t>B0F7LJYVN5-Dads-Card</t>
   </si>
   <si>
     <t>Total</t>
@@ -1204,7 +1228,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="" descr=""/>
@@ -1214,6 +1238,246 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1520,10 +1784,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL31"/>
+      <selection activeCell="A1" sqref="A1:AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1556,7 +1820,7 @@
     <col min="26" max="26" width="4.570313" bestFit="true" customWidth="true" style="4"/>
     <col min="27" max="27" width="6.998291" bestFit="true" customWidth="true" style="3"/>
     <col min="28" max="28" width="13.996582" bestFit="true" customWidth="true" style="2"/>
-    <col min="29" max="29" width="9.283447" bestFit="true" customWidth="true" style="2"/>
+    <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="30" max="30" width="16.424561" bestFit="true" customWidth="true" style="2"/>
     <col min="31" max="31" width="38.847656" bestFit="true" customWidth="true" style="2"/>
     <col min="32" max="32" width="31.706543" bestFit="true" customWidth="true" style="2"/>
@@ -1690,112 +1954,112 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>7.18</v>
+        <v>8.44</v>
       </c>
       <c r="D2" s="7">
-        <v>24.97</v>
+        <v>49.94</v>
       </c>
       <c r="E2" s="7">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F2" s="7">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G2" s="6">
-        <v>3.48</v>
+        <v>5.92</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8">
-        <v>0.0013</v>
+        <v>0.0015</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0064</v>
+        <v>0.0123</v>
       </c>
       <c r="K2" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>24234</v>
+      </c>
+      <c r="P2" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>298</v>
+      </c>
+      <c r="R2" s="9">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9">
+        <v>4</v>
+      </c>
+      <c r="T2" s="9">
+        <v>4</v>
+      </c>
+      <c r="U2" s="9">
+        <v>2</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="W2" s="9">
+        <v>94</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0.0039</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="8">
         <v>0.0001</v>
       </c>
-      <c r="L2" s="7">
-        <v>3.59</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <v>20159</v>
-      </c>
-      <c r="P2" s="9">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>130</v>
-      </c>
-      <c r="R2" s="9">
-        <v>2</v>
-      </c>
-      <c r="S2" s="9">
-        <v>2</v>
-      </c>
-      <c r="T2" s="9">
-        <v>2</v>
-      </c>
-      <c r="U2" s="9">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="9">
-        <v>56</v>
-      </c>
-      <c r="X2" s="8">
-        <v>0.0028</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="Z2" s="9">
+      <c r="AB2" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>2.81</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>49.94</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>5.92</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="AI2" s="9">
         <v>1</v>
       </c>
-      <c r="AA2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>3.59</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>24.97</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>0</v>
-      </c>
       <c r="AJ2" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="AK2" s="8">
         <v>0</v>
       </c>
       <c r="AL2" s="7">
-        <v>0</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -1804,112 +2068,112 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>5.56</v>
+        <v>6.98</v>
       </c>
       <c r="D3" s="7">
-        <v>19.98</v>
+        <v>39.96</v>
       </c>
       <c r="E3" s="7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F3" s="7">
-        <v>1.39</v>
+        <v>0.54</v>
       </c>
       <c r="G3" s="6">
-        <v>3.59</v>
+        <v>5.72</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="8">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="K3" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L3" s="7">
-        <v>5.56</v>
+        <v>3.49</v>
       </c>
       <c r="M3" s="6">
-        <v>3.59</v>
+        <v>5.72</v>
       </c>
       <c r="N3" s="8">
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>5348</v>
+        <v>6647</v>
       </c>
       <c r="P3" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="9">
+        <v>2</v>
+      </c>
+      <c r="T3" s="9">
+        <v>2</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="W3" s="9">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0.0015</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Z3" s="9">
         <v>1</v>
       </c>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>6.98</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>6.98</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>39.96</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>39.96</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>39.96</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>5.72</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>5.72</v>
+      </c>
+      <c r="AI3" s="9">
         <v>2</v>
       </c>
-      <c r="X3" s="8">
-        <v>0.0004</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>2.78</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>19.98</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>19.98</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>19.98</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>3.59</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>3.59</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>1</v>
-      </c>
       <c r="AJ3" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AK3" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AL3" s="7">
-        <v>5.56</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="90">
@@ -1918,16 +2182,16 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>5.55</v>
+        <v>6.87</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="F4" s="7">
-        <v>5.55</v>
+        <v>0.53</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1936,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0034</v>
+        <v>0.0036</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0003</v>
+        <v>0.0033</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -1954,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>2926</v>
+        <v>3894</v>
       </c>
       <c r="P4" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="9">
         <v>0</v>
@@ -1975,28 +2239,28 @@
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="W4" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X4" s="8">
-        <v>0.0003</v>
+        <v>0.0033</v>
       </c>
       <c r="Y4" s="7">
-        <v>5.55</v>
+        <v>0.53</v>
       </c>
       <c r="Z4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AB4" s="7">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AC4" s="7">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
@@ -2032,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>5.52</v>
+        <v>6.76</v>
       </c>
       <c r="D5" s="7">
         <v>15.98</v>
@@ -2041,40 +2305,40 @@
         <v>1.05</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G5" s="6">
-        <v>2.89</v>
+        <v>2.36</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5" s="8">
-        <v>0.0013</v>
+        <v>0.0019</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>5.52</v>
+        <v>6.76</v>
       </c>
       <c r="M5" s="6">
-        <v>2.89</v>
+        <v>2.36</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>5243</v>
+        <v>6466</v>
       </c>
       <c r="P5" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="9">
         <v>7</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
       </c>
       <c r="R5" s="9">
         <v>0</v>
@@ -2089,16 +2353,16 @@
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <v>0.79</v>
+        <v>0.56</v>
       </c>
       <c r="W5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="8">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="Y5" s="7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
@@ -2122,10 +2386,10 @@
         <v>15.98</v>
       </c>
       <c r="AG5" s="6">
-        <v>2.89</v>
+        <v>2.36</v>
       </c>
       <c r="AH5" s="6">
-        <v>2.89</v>
+        <v>2.36</v>
       </c>
       <c r="AI5" s="9">
         <v>1</v>
@@ -2137,7 +2401,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL5" s="7">
-        <v>5.52</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="90">
@@ -2146,34 +2410,34 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>5.49</v>
+        <v>6.75</v>
       </c>
       <c r="D6" s="7">
         <v>26.13</v>
       </c>
       <c r="E6" s="7">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="F6" s="7">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="G6" s="6">
-        <v>4.76</v>
+        <v>3.87</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="8">
-        <v>0.0034</v>
+        <v>0.0029</v>
       </c>
       <c r="J6" s="8">
-        <v>0.001</v>
+        <v>0.0039</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="L6" s="7">
-        <v>2.74</v>
+        <v>3.37</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -2182,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>2903</v>
+        <v>3799</v>
       </c>
       <c r="P6" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S6" s="9">
         <v>2</v>
@@ -2200,31 +2464,31 @@
         <v>2</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="W6" s="9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="X6" s="8">
-        <v>0.001</v>
+        <v>0.0039</v>
       </c>
       <c r="Y6" s="7">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="Z6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="8">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="AB6" s="7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC6" s="7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AD6" s="7">
         <v>0</v>
@@ -2236,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="6">
-        <v>4.76</v>
+        <v>3.87</v>
       </c>
       <c r="AH6" s="6">
         <v>0</v>
@@ -2245,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="8">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
       <c r="AK6" s="8">
         <v>0</v>
@@ -2260,112 +2524,112 @@
         <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>5.46</v>
+        <v>6.67</v>
       </c>
       <c r="D7" s="7">
-        <v>14.23</v>
+        <v>34.21</v>
       </c>
       <c r="E7" s="7">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="F7" s="7">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="G7" s="6">
-        <v>2.61</v>
+        <v>5.13</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>0.0056</v>
+        <v>0.0045</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0021</v>
+        <v>0.0053</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="L7" s="7">
-        <v>5.46</v>
+        <v>3.34</v>
       </c>
       <c r="M7" s="6">
-        <v>2.61</v>
+        <v>5.13</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>2876</v>
+        <v>3802</v>
       </c>
       <c r="P7" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>20</v>
+      </c>
+      <c r="R7" s="9">
+        <v>6</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9">
+        <v>2</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="W7" s="9">
         <v>16</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="X7" s="8">
+        <v>0.0042</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="Z7" s="9">
         <v>6</v>
       </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>1</v>
-      </c>
-      <c r="T7" s="9">
-        <v>1</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="W7" s="9">
-        <v>4</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0.0014</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1.36</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
       <c r="AA7" s="8">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="AB7" s="7">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC7" s="7">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AD7" s="7">
-        <v>14.23</v>
+        <v>34.21</v>
       </c>
       <c r="AE7" s="7">
-        <v>14.23</v>
+        <v>34.21</v>
       </c>
       <c r="AF7" s="7">
-        <v>14.23</v>
+        <v>34.21</v>
       </c>
       <c r="AG7" s="6">
-        <v>2.61</v>
+        <v>5.13</v>
       </c>
       <c r="AH7" s="6">
-        <v>2.61</v>
+        <v>5.13</v>
       </c>
       <c r="AI7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="8">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="AK7" s="8">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="AL7" s="7">
-        <v>5.46</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="90">
@@ -2374,112 +2638,112 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>5.41</v>
+        <v>6.67</v>
       </c>
       <c r="D8" s="7">
-        <v>95.9</v>
+        <v>19.98</v>
       </c>
       <c r="E8" s="7">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="F8" s="7">
-        <v>5.41</v>
+        <v>0.24</v>
       </c>
       <c r="G8" s="6">
-        <v>17.73</v>
+        <v>3</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0043</v>
+        <v>0.0061</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0004</v>
+        <v>0.0074</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="L8" s="7">
-        <v>1.08</v>
+        <v>6.67</v>
       </c>
       <c r="M8" s="6">
-        <v>14.03</v>
+        <v>3</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>2782</v>
+        <v>3778</v>
       </c>
       <c r="P8" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="9">
+        <v>28</v>
+      </c>
+      <c r="R8" s="9">
+        <v>3</v>
+      </c>
+      <c r="S8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>5</v>
-      </c>
       <c r="T8" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="W8" s="9">
+        <v>15</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0.0008</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>2.22</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>2.22</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="9">
         <v>1</v>
       </c>
-      <c r="X8" s="8">
-        <v>0.0004</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>5.41</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>75.92</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>95.9</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>75.92</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>17.73</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>14.03</v>
-      </c>
-      <c r="AI8" s="9">
-        <v>4</v>
-      </c>
       <c r="AJ8" s="8">
-        <v>0.0018</v>
+        <v>0.0003</v>
       </c>
       <c r="AK8" s="8">
-        <v>0.0014</v>
+        <v>0.0003</v>
       </c>
       <c r="AL8" s="7">
-        <v>1.35</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="90">
@@ -2488,34 +2752,34 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>5.39</v>
+        <v>6.66</v>
       </c>
       <c r="D9" s="7">
         <v>17.98</v>
       </c>
       <c r="E9" s="7">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F9" s="7">
-        <v>0.9</v>
+        <v>0.44</v>
       </c>
       <c r="G9" s="6">
-        <v>3.34</v>
+        <v>2.7</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0012</v>
+        <v>0.0024</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L9" s="7">
-        <v>5.39</v>
+        <v>6.66</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
@@ -2524,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>5111</v>
+        <v>6243</v>
       </c>
       <c r="P9" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="9">
         <v>1</v>
@@ -2545,16 +2809,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="W9" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X9" s="8">
-        <v>0.001</v>
+        <v>0.0016</v>
       </c>
       <c r="Y9" s="7">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="Z9" s="9">
         <v>0</v>
@@ -2563,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="7">
-        <v>0</v>
+        <v>6.66</v>
       </c>
       <c r="AC9" s="7">
         <v>0</v>
@@ -2578,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="6">
-        <v>3.34</v>
+        <v>2.7</v>
       </c>
       <c r="AH9" s="6">
         <v>0</v>
@@ -2602,112 +2866,112 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>5.32</v>
+        <v>6.63</v>
       </c>
       <c r="D10" s="7">
-        <v>20.98</v>
+        <v>95.9</v>
       </c>
       <c r="E10" s="7">
-        <v>1.06</v>
+        <v>1.78</v>
       </c>
       <c r="F10" s="7">
-        <v>5.32</v>
+        <v>0.33</v>
       </c>
       <c r="G10" s="6">
-        <v>3.94</v>
+        <v>14.46</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0026</v>
+        <v>0.0038</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0002</v>
+        <v>0.0054</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L10" s="7">
-        <v>5.32</v>
+        <v>1.33</v>
       </c>
       <c r="M10" s="6">
-        <v>3.94</v>
+        <v>11.45</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>5034</v>
+        <v>3717</v>
       </c>
       <c r="P10" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="9">
+        <v>20</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
+      <c r="S10" s="9">
+        <v>5</v>
+      </c>
+      <c r="T10" s="9">
+        <v>5</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="W10" s="9">
+        <v>19</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.0051</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="Z10" s="9">
         <v>1</v>
       </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>1</v>
-      </c>
-      <c r="T10" s="9">
-        <v>1</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="W10" s="9">
-        <v>1</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>5.32</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
       <c r="AA10" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB10" s="7">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="AC10" s="7">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="AD10" s="7">
-        <v>20.98</v>
+        <v>75.92</v>
       </c>
       <c r="AE10" s="7">
-        <v>20.98</v>
+        <v>95.9</v>
       </c>
       <c r="AF10" s="7">
-        <v>20.98</v>
+        <v>75.92</v>
       </c>
       <c r="AG10" s="6">
-        <v>3.94</v>
+        <v>14.46</v>
       </c>
       <c r="AH10" s="6">
-        <v>3.94</v>
+        <v>11.45</v>
       </c>
       <c r="AI10" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="8">
-        <v>0.0002</v>
+        <v>0.0013</v>
       </c>
       <c r="AK10" s="8">
-        <v>0.0002</v>
+        <v>0.0011</v>
       </c>
       <c r="AL10" s="7">
-        <v>5.32</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="90">
@@ -2716,52 +2980,52 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>5.3</v>
+        <v>6.59</v>
       </c>
       <c r="D11" s="7">
-        <v>19.98</v>
+        <v>20.98</v>
       </c>
       <c r="E11" s="7">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="F11" s="7">
-        <v>1.32</v>
+        <v>0.94</v>
       </c>
       <c r="G11" s="6">
-        <v>3.77</v>
+        <v>3.18</v>
       </c>
       <c r="H11" s="8">
         <v>1</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0043</v>
+        <v>0.0026</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="K11" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="L11" s="7">
-        <v>5.3</v>
+        <v>6.59</v>
       </c>
       <c r="M11" s="6">
-        <v>3.77</v>
+        <v>3.18</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>2794</v>
+        <v>6250</v>
       </c>
       <c r="P11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="9">
         <v>1</v>
@@ -2773,55 +3037,55 @@
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="W11" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X11" s="8">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="Y11" s="7">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="Z11" s="9">
         <v>1</v>
       </c>
       <c r="AA11" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AB11" s="7">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="AC11" s="7">
-        <v>5.3</v>
+        <v>6.59</v>
       </c>
       <c r="AD11" s="7">
-        <v>19.98</v>
+        <v>20.98</v>
       </c>
       <c r="AE11" s="7">
-        <v>19.98</v>
+        <v>20.98</v>
       </c>
       <c r="AF11" s="7">
-        <v>19.98</v>
+        <v>20.98</v>
       </c>
       <c r="AG11" s="6">
-        <v>3.77</v>
+        <v>3.18</v>
       </c>
       <c r="AH11" s="6">
-        <v>3.77</v>
+        <v>3.18</v>
       </c>
       <c r="AI11" s="9">
         <v>1</v>
       </c>
       <c r="AJ11" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AK11" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AL11" s="7">
-        <v>5.3</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="90">
@@ -2830,112 +3094,112 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>5.26</v>
+        <v>6.33</v>
       </c>
       <c r="D12" s="7">
-        <v>19.98</v>
+        <v>33.77</v>
       </c>
       <c r="E12" s="7">
-        <v>1.96</v>
+        <v>0.32</v>
       </c>
       <c r="F12" s="7">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G12" s="6">
-        <v>3.8</v>
+        <v>5.33</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="8">
+        <v>0.0015</v>
+      </c>
+      <c r="J12" s="8">
         <v>0.0026</v>
       </c>
-      <c r="J12" s="8">
-        <v>0.0112</v>
-      </c>
       <c r="K12" s="8">
-        <v>0.0011</v>
+        <v>0.0003</v>
       </c>
       <c r="L12" s="7">
-        <v>5.26</v>
+        <v>2.11</v>
       </c>
       <c r="M12" s="6">
-        <v>3.8</v>
+        <v>4.23</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>2680</v>
+        <v>19888</v>
       </c>
       <c r="P12" s="9">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9">
+        <v>5</v>
+      </c>
+      <c r="S12" s="9">
         <v>3</v>
       </c>
-      <c r="S12" s="9">
+      <c r="T12" s="9">
+        <v>3</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="W12" s="9">
+        <v>29</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.0015</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="Z12" s="9">
         <v>1</v>
       </c>
-      <c r="T12" s="9">
-        <v>1</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="W12" s="9">
-        <v>30</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0.0112</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>3</v>
-      </c>
       <c r="AA12" s="8">
-        <v>0.0011</v>
+        <v>0.0001</v>
       </c>
       <c r="AB12" s="7">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="AC12" s="7">
-        <v>1.75</v>
+        <v>6.33</v>
       </c>
       <c r="AD12" s="7">
-        <v>19.98</v>
+        <v>26.78</v>
       </c>
       <c r="AE12" s="7">
-        <v>19.98</v>
+        <v>33.77</v>
       </c>
       <c r="AF12" s="7">
-        <v>19.98</v>
+        <v>26.78</v>
       </c>
       <c r="AG12" s="6">
-        <v>3.8</v>
+        <v>5.33</v>
       </c>
       <c r="AH12" s="6">
-        <v>3.8</v>
+        <v>4.23</v>
       </c>
       <c r="AI12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AK12" s="8">
-        <v>0.0004</v>
+        <v>0.0001</v>
       </c>
       <c r="AL12" s="7">
-        <v>5.26</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="90">
@@ -2944,112 +3208,112 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>5.22</v>
+        <v>6.26</v>
       </c>
       <c r="D13" s="7">
-        <v>6.99</v>
+        <v>27.97</v>
       </c>
       <c r="E13" s="7">
-        <v>0.3</v>
+        <v>1.92</v>
       </c>
       <c r="F13" s="7">
-        <v>0.58</v>
+        <v>0.15</v>
       </c>
       <c r="G13" s="6">
-        <v>1.34</v>
+        <v>4.47</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0013</v>
+        <v>0.0034</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0005</v>
+        <v>0.0129</v>
       </c>
       <c r="K13" s="8">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="L13" s="7">
-        <v>5.22</v>
+        <v>3.13</v>
       </c>
       <c r="M13" s="6">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>17237</v>
+        <v>3256</v>
       </c>
       <c r="P13" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="9">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="R13" s="9">
+        <v>5</v>
+      </c>
+      <c r="S13" s="9">
+        <v>2</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0.57</v>
+      </c>
+      <c r="W13" s="9">
+        <v>42</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.0129</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0.0015</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>27.97</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="AI13" s="9">
         <v>1</v>
       </c>
-      <c r="S13" s="9">
-        <v>1</v>
-      </c>
-      <c r="T13" s="9">
-        <v>1</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="W13" s="9">
-        <v>4</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>5.22</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>6.99</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>1.34</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="9">
-        <v>0</v>
-      </c>
       <c r="AJ13" s="8">
-        <v>0.0001</v>
+        <v>0.0006</v>
       </c>
       <c r="AK13" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AL13" s="7">
-        <v>0</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="90">
@@ -3058,16 +3322,16 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>5.18</v>
+        <v>6.14</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="F14" s="7">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -3076,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>0.0039</v>
+        <v>0.0038</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0051</v>
+        <v>0.0083</v>
       </c>
       <c r="K14" s="8">
-        <v>0.0008</v>
+        <v>0.0019</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -3094,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>2545</v>
+        <v>3121</v>
       </c>
       <c r="P14" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="R14" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14" s="9">
         <v>0</v>
@@ -3115,28 +3379,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="W14" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0043</v>
+        <v>0.0077</v>
       </c>
       <c r="Y14" s="7">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="Z14" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="8">
-        <v>0.0008</v>
+        <v>0.0019</v>
       </c>
       <c r="AB14" s="7">
-        <v>2.59</v>
+        <v>1.02</v>
       </c>
       <c r="AC14" s="7">
-        <v>2.59</v>
+        <v>1.02</v>
       </c>
       <c r="AD14" s="7">
         <v>0</v>
@@ -3172,52 +3436,52 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>5.05</v>
+        <v>6.02</v>
       </c>
       <c r="D15" s="7">
-        <v>22.98</v>
+        <v>14.23</v>
       </c>
       <c r="E15" s="7">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="F15" s="7">
-        <v>1.26</v>
+        <v>0.14</v>
       </c>
       <c r="G15" s="6">
-        <v>4.55</v>
+        <v>2.36</v>
       </c>
       <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>0.0051</v>
+        <v>0.0028</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0016</v>
+        <v>0.0133</v>
       </c>
       <c r="K15" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="L15" s="7">
-        <v>5.05</v>
+        <v>6.02</v>
       </c>
       <c r="M15" s="6">
-        <v>4.55</v>
+        <v>2.36</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>2557</v>
+        <v>3239</v>
       </c>
       <c r="P15" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="9">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" s="9">
         <v>1</v>
@@ -3229,55 +3493,55 @@
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="W15" s="9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="X15" s="8">
-        <v>0.0016</v>
+        <v>0.0123</v>
       </c>
       <c r="Y15" s="7">
-        <v>1.26</v>
+        <v>0.15</v>
       </c>
       <c r="Z15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AB15" s="7">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AC15" s="7">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AD15" s="7">
-        <v>22.98</v>
+        <v>14.23</v>
       </c>
       <c r="AE15" s="7">
-        <v>22.98</v>
+        <v>14.23</v>
       </c>
       <c r="AF15" s="7">
-        <v>22.98</v>
+        <v>14.23</v>
       </c>
       <c r="AG15" s="6">
-        <v>4.55</v>
+        <v>2.36</v>
       </c>
       <c r="AH15" s="6">
-        <v>4.55</v>
+        <v>2.36</v>
       </c>
       <c r="AI15" s="9">
         <v>1</v>
       </c>
       <c r="AJ15" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AK15" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AL15" s="7">
-        <v>5.05</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="90">
@@ -3286,112 +3550,112 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>4.98</v>
+        <v>5.88</v>
       </c>
       <c r="D16" s="7">
-        <v>39.96</v>
+        <v>90.9</v>
       </c>
       <c r="E16" s="7">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F16" s="7">
-        <v>1.24</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="6">
-        <v>8.02</v>
+        <v>15.46</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.0046</v>
+        <v>0.0032</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0015</v>
+        <v>0.0093</v>
       </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="L16" s="7">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M16" s="6">
-        <v>4.01</v>
+        <v>15.46</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>2620</v>
+        <v>3114</v>
       </c>
       <c r="P16" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T16" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="W16" s="9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X16" s="8">
-        <v>0.0015</v>
+        <v>0.0074</v>
       </c>
       <c r="Y16" s="7">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
       <c r="Z16" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA16" s="8">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="AB16" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AC16" s="7">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AD16" s="7">
-        <v>19.98</v>
+        <v>90.9</v>
       </c>
       <c r="AE16" s="7">
-        <v>39.96</v>
+        <v>90.9</v>
       </c>
       <c r="AF16" s="7">
-        <v>19.98</v>
+        <v>90.9</v>
       </c>
       <c r="AG16" s="6">
-        <v>8.02</v>
+        <v>15.46</v>
       </c>
       <c r="AH16" s="6">
-        <v>4.01</v>
+        <v>15.46</v>
       </c>
       <c r="AI16" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ16" s="8">
-        <v>0.0008</v>
+        <v>0.001</v>
       </c>
       <c r="AK16" s="8">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="AL16" s="7">
-        <v>4.98</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="90">
@@ -3400,112 +3664,112 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>4.98</v>
+        <v>5.87</v>
       </c>
       <c r="D17" s="7">
-        <v>14.23</v>
+        <v>39.96</v>
       </c>
       <c r="E17" s="7">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="F17" s="7">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G17" s="6">
-        <v>2.86</v>
+        <v>6.81</v>
       </c>
       <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0031</v>
+        <v>0.005</v>
       </c>
       <c r="J17" s="8">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="L17" s="7">
-        <v>4.98</v>
+        <v>2.93</v>
       </c>
       <c r="M17" s="6">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="N17" s="8">
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>2621</v>
+        <v>3185</v>
       </c>
       <c r="P17" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="9">
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="W17" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0038</v>
+        <v>0.0044</v>
       </c>
       <c r="Y17" s="7">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="Z17" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AB17" s="7">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AC17" s="7">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD17" s="7">
-        <v>14.23</v>
+        <v>19.98</v>
       </c>
       <c r="AE17" s="7">
-        <v>14.23</v>
+        <v>39.96</v>
       </c>
       <c r="AF17" s="7">
-        <v>14.23</v>
+        <v>19.98</v>
       </c>
       <c r="AG17" s="6">
-        <v>2.86</v>
+        <v>6.81</v>
       </c>
       <c r="AH17" s="6">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="AI17" s="9">
         <v>1</v>
       </c>
       <c r="AJ17" s="8">
-        <v>0.0004</v>
+        <v>0.0006</v>
       </c>
       <c r="AK17" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AL17" s="7">
-        <v>4.98</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="90">
@@ -3514,112 +3778,112 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>4.88</v>
+        <v>5.84</v>
       </c>
       <c r="D18" s="7">
-        <v>67.92</v>
+        <v>22.98</v>
       </c>
       <c r="E18" s="7">
         <v>1.91</v>
       </c>
       <c r="F18" s="7">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="G18" s="6">
-        <v>13.92</v>
+        <v>3.93</v>
       </c>
       <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0023</v>
+        <v>0.0039</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0059</v>
+        <v>0.0091</v>
       </c>
       <c r="K18" s="8">
-        <v>0.0016</v>
+        <v>0.002</v>
       </c>
       <c r="L18" s="7">
-        <v>2.44</v>
+        <v>5.84</v>
       </c>
       <c r="M18" s="6">
-        <v>13.92</v>
+        <v>3.93</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>2556</v>
+        <v>3061</v>
       </c>
       <c r="P18" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>28</v>
+      </c>
+      <c r="R18" s="9">
         <v>6</v>
       </c>
-      <c r="Q18" s="9">
-        <v>15</v>
-      </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="W18" s="9">
+        <v>21</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.0069</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="Z18" s="9">
         <v>4</v>
       </c>
-      <c r="S18" s="9">
-        <v>2</v>
-      </c>
-      <c r="T18" s="9">
-        <v>4</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="W18" s="9">
-        <v>10</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0.0039</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>3</v>
-      </c>
       <c r="AA18" s="8">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="AB18" s="7">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="AC18" s="7">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AD18" s="7">
-        <v>67.92</v>
+        <v>22.98</v>
       </c>
       <c r="AE18" s="7">
-        <v>67.92</v>
+        <v>22.98</v>
       </c>
       <c r="AF18" s="7">
-        <v>67.92</v>
+        <v>22.98</v>
       </c>
       <c r="AG18" s="6">
-        <v>13.92</v>
+        <v>3.93</v>
       </c>
       <c r="AH18" s="6">
-        <v>13.92</v>
+        <v>3.93</v>
       </c>
       <c r="AI18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="8">
-        <v>0.0008</v>
+        <v>0.0003</v>
       </c>
       <c r="AK18" s="8">
-        <v>0.0008</v>
+        <v>0.0003</v>
       </c>
       <c r="AL18" s="7">
-        <v>2.44</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="90">
@@ -3628,112 +3892,112 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>4.27</v>
+        <v>5.27</v>
       </c>
       <c r="D19" s="7">
-        <v>22.97</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>0.6</v>
+        <v>0.56</v>
       </c>
       <c r="F19" s="7">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G19" s="6">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0056</v>
+        <v>0.0035</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0063</v>
+        <v>0.0043</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L19" s="7">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>7130</v>
+        <v>9353</v>
       </c>
       <c r="P19" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="9">
         <v>40</v>
       </c>
-      <c r="Q19" s="9">
-        <v>45</v>
-      </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="W19" s="9">
+        <v>29</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.0031</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Z19" s="9">
         <v>2</v>
       </c>
-      <c r="T19" s="9">
-        <v>2</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="W19" s="9">
-        <v>15</v>
-      </c>
-      <c r="X19" s="8">
-        <v>0.0021</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
       <c r="AA19" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB19" s="7">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC19" s="7">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD19" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
-        <v>22.97</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="7">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="6">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="6">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="8">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="7">
-        <v>4.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:38" customHeight="1" ht="90">
@@ -3742,73 +4006,73 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>4.2</v>
+        <v>5.27</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>22.97</v>
       </c>
       <c r="E20" s="7">
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
       <c r="F20" s="7">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="G20" s="6">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0028</v>
+        <v>0.0055</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0014</v>
+        <v>0.0092</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M20" s="6">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>7131</v>
+        <v>9347</v>
       </c>
       <c r="P20" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="9">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="9">
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="W20" s="9">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0008</v>
+        <v>0.0043</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
@@ -3823,31 +4087,31 @@
         <v>0</v>
       </c>
       <c r="AD20" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AE20" s="7">
-        <v>0</v>
+        <v>22.97</v>
       </c>
       <c r="AF20" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AG20" s="6">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="AH20" s="6">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AI20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AK20" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AL20" s="7">
-        <v>0</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="21" spans="1:38" customHeight="1" ht="90">
@@ -3856,73 +4120,73 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>4.15</v>
+        <v>5.15</v>
       </c>
       <c r="D21" s="7">
-        <v>33.77</v>
+        <v>12.98</v>
       </c>
       <c r="E21" s="7">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="F21" s="7">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="G21" s="6">
-        <v>8.14</v>
+        <v>2.52</v>
       </c>
       <c r="H21" s="8">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0032</v>
+        <v>0.0039</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0011</v>
+        <v>0.0051</v>
       </c>
       <c r="K21" s="8">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="L21" s="7">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="M21" s="6">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="N21" s="8">
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>7232</v>
+        <v>9385</v>
       </c>
       <c r="P21" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="R21" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
       </c>
       <c r="V21" s="7">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="W21" s="9">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="X21" s="8">
-        <v>0.0007</v>
+        <v>0.0029</v>
       </c>
       <c r="Y21" s="7">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="Z21" s="9">
         <v>0</v>
@@ -3931,37 +4195,37 @@
         <v>0</v>
       </c>
       <c r="AB21" s="7">
-        <v>4.15</v>
+        <v>1.03</v>
       </c>
       <c r="AC21" s="7">
         <v>0</v>
       </c>
       <c r="AD21" s="7">
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="7">
-        <v>27.78</v>
+        <v>6.99</v>
       </c>
       <c r="AF21" s="7">
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="6">
-        <v>6.69</v>
+        <v>1.36</v>
       </c>
       <c r="AH21" s="6">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="8">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AK21" s="8">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="7">
-        <v>4.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" customHeight="1" ht="90">
@@ -3970,16 +4234,16 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>4.14</v>
+        <v>5.15</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
       <c r="F22" s="7">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -3988,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0033</v>
+        <v>0.0036</v>
       </c>
       <c r="J22" s="8">
-        <v>0.0021</v>
+        <v>0.0047</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -4006,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>7074</v>
+        <v>9231</v>
       </c>
       <c r="P22" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="9">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
@@ -4027,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="W22" s="9">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="X22" s="8">
-        <v>0.002</v>
+        <v>0.0043</v>
       </c>
       <c r="Y22" s="7">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="Z22" s="9">
         <v>0</v>
@@ -4084,100 +4348,100 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>4.03</v>
+        <v>5.08</v>
       </c>
       <c r="D23" s="7">
-        <v>50.19</v>
+        <v>58.18</v>
       </c>
       <c r="E23" s="7">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="F23" s="7">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="G23" s="6">
-        <v>12.45</v>
+        <v>11.45</v>
       </c>
       <c r="H23" s="8">
-        <v>0.6667</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0037</v>
+        <v>0.0038</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0014</v>
+        <v>0.0039</v>
       </c>
       <c r="K23" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L23" s="7">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M23" s="6">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>7028</v>
+        <v>9250</v>
       </c>
       <c r="P23" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="R23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
       </c>
       <c r="V23" s="7">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="W23" s="9">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="X23" s="8">
-        <v>0.0013</v>
+        <v>0.0029</v>
       </c>
       <c r="Y23" s="7">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="Z23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB23" s="7">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="AC23" s="7">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="AD23" s="7">
         <v>14.23</v>
       </c>
       <c r="AE23" s="7">
-        <v>33.21</v>
+        <v>41.2</v>
       </c>
       <c r="AF23" s="7">
         <v>14.23</v>
       </c>
       <c r="AG23" s="6">
-        <v>8.24</v>
+        <v>8.11</v>
       </c>
       <c r="AH23" s="6">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="AI23" s="9">
         <v>1</v>
@@ -4189,7 +4453,7 @@
         <v>0.0001</v>
       </c>
       <c r="AL23" s="7">
-        <v>4.03</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="24" spans="1:38" customHeight="1" ht="90">
@@ -4198,16 +4462,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>3.33</v>
+        <v>4.21</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="F24" s="7">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -4216,13 +4480,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
+        <v>0.0048</v>
+      </c>
+      <c r="J24" s="8">
         <v>0.0055</v>
       </c>
-      <c r="J24" s="8">
-        <v>0.0029</v>
-      </c>
       <c r="K24" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -4234,16 +4498,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>2380</v>
+        <v>3097</v>
       </c>
       <c r="P24" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="9">
         <v>0</v>
@@ -4255,28 +4519,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="W24" s="9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X24" s="8">
-        <v>0.0029</v>
+        <v>0.0045</v>
       </c>
       <c r="Y24" s="7">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="Z24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB24" s="7">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="AC24" s="7">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="AD24" s="7">
         <v>0</v>
@@ -4312,16 +4576,16 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="F25" s="7">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -4330,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0087</v>
+        <v>0.0082</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0017</v>
+        <v>0.0053</v>
       </c>
       <c r="K25" s="8">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="L25" s="7">
         <v>0</v>
@@ -4348,16 +4612,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>3546</v>
+        <v>5638</v>
       </c>
       <c r="P25" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="9">
         <v>0</v>
@@ -4369,16 +4633,16 @@
         <v>0</v>
       </c>
       <c r="V25" s="7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="W25" s="9">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X25" s="8">
-        <v>0.0014</v>
+        <v>0.0037</v>
       </c>
       <c r="Y25" s="7">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="Z25" s="9">
         <v>0</v>
@@ -4387,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="7">
-        <v>2.77</v>
+        <v>1.92</v>
       </c>
       <c r="AC25" s="7">
         <v>0</v>
@@ -4468,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -4486,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26" s="8">
         <v>0</v>
@@ -4582,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -4696,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
@@ -4714,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="8">
         <v>0</v>
@@ -4810,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
@@ -4828,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" s="8">
         <v>0</v>
@@ -4924,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -4996,112 +5260,1024 @@
         <v>67</v>
       </c>
       <c r="C31" s="7">
-        <v>118.62</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>535.12</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>4.51</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>0.9355</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>2</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" customHeight="1" ht="90">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>1</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" customHeight="1" ht="90">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>1</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" customHeight="1" ht="90">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" customHeight="1" ht="90">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>2</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>2</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" customHeight="1" ht="90">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" customHeight="1" ht="90">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>3</v>
+      </c>
+      <c r="R37" s="9">
+        <v>1</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>1</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" customHeight="1" ht="90">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>1</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" customHeight="1" ht="90">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7">
+        <v>145.32</v>
+      </c>
+      <c r="D39" s="7">
+        <v>645</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4.44</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.9487</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.0031</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.0061</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.0005</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3.73</v>
+      </c>
+      <c r="M39" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>162995</v>
+      </c>
+      <c r="P39" s="9">
+        <v>513</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>992</v>
+      </c>
+      <c r="R39" s="9">
+        <v>81</v>
+      </c>
+      <c r="S39" s="9">
+        <v>39</v>
+      </c>
+      <c r="T39" s="9">
+        <v>41</v>
+      </c>
+      <c r="U39" s="9">
+        <v>3</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="W39" s="9">
+        <v>605</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0.0037</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>55</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>452.07</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>622.03</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>452.07</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AJ39" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AK39" s="8">
         <v>0.0001</v>
       </c>
-      <c r="L31" s="7">
-        <v>3.83</v>
-      </c>
-      <c r="M31" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>129513</v>
-      </c>
-      <c r="P31" s="9">
-        <v>378</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>352</v>
-      </c>
-      <c r="R31" s="9">
-        <v>15</v>
-      </c>
-      <c r="S31" s="9">
-        <v>31</v>
-      </c>
-      <c r="T31" s="9">
-        <v>33</v>
-      </c>
-      <c r="U31" s="9">
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="W31" s="9">
-        <v>209</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0.0016</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>0.57</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>7.91</v>
-      </c>
-      <c r="AC31" s="7">
-        <v>11.86</v>
-      </c>
-      <c r="AD31" s="7">
-        <v>363.16</v>
-      </c>
-      <c r="AE31" s="7">
-        <v>512.15</v>
-      </c>
-      <c r="AF31" s="7">
-        <v>363.16</v>
-      </c>
-      <c r="AG31" s="6">
-        <v>4.32</v>
-      </c>
-      <c r="AH31" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="AI31" s="9">
-        <v>18</v>
-      </c>
-      <c r="AJ31" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="AK31" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AL31" s="7">
-        <v>6.59</v>
+      <c r="AL39" s="7">
+        <v>6.32</v>
       </c>
     </row>
   </sheetData>
